--- a/Experiments/Measurements/Two Banners Back 2 Back/V Path/Antenna_1/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Two Banners Back 2 Back/V Path/Antenna_1/Transformed_Coordinates.xlsx
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>167.1989679268419</v>
+        <v>167.1989679268422</v>
       </c>
       <c r="H2" t="n">
         <v>119.2935830027446</v>
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>147.2725980578581</v>
+        <v>147.2725980578583</v>
       </c>
       <c r="H3" t="n">
-        <v>116.18746030834</v>
+        <v>116.1874603083402</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>127.5348365214807</v>
+        <v>127.5348365214809</v>
       </c>
       <c r="H4" t="n">
-        <v>113.0677945137673</v>
+        <v>113.0677945137674</v>
       </c>
     </row>
     <row r="5">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>108.0488423045617</v>
+        <v>108.0488423045618</v>
       </c>
       <c r="H6" t="n">
-        <v>105.3087926413095</v>
+        <v>105.3087926413094</v>
       </c>
     </row>
     <row r="7">
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>143.4921084056051</v>
+        <v>143.4921084056053</v>
       </c>
       <c r="H7" t="n">
         <v>120.9056507949384</v>
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>167.1376532526148</v>
+        <v>167.1376532526151</v>
       </c>
       <c r="H8" t="n">
-        <v>116.2273901210156</v>
+        <v>116.2273901210157</v>
       </c>
     </row>
     <row r="9">
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>147.5692063741295</v>
+        <v>147.5692063741297</v>
       </c>
       <c r="H9" t="n">
-        <v>112.9158100699841</v>
+        <v>112.9158100699843</v>
       </c>
     </row>
     <row r="10">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>127.4181688233772</v>
+        <v>127.4181688233774</v>
       </c>
       <c r="H10" t="n">
-        <v>110.1141648655374</v>
+        <v>110.1141648655375</v>
       </c>
     </row>
     <row r="11">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>108.2420812685846</v>
+        <v>108.2420812685847</v>
       </c>
       <c r="H11" t="n">
-        <v>106.4712346144125</v>
+        <v>106.4712346144124</v>
       </c>
     </row>
     <row r="12">
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>108.0304122651434</v>
+        <v>108.0304122651435</v>
       </c>
       <c r="H12" t="n">
-        <v>113.5955908525717</v>
+        <v>113.5955908525716</v>
       </c>
     </row>
     <row r="13">
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>144.9904723862644</v>
+        <v>144.9904723862646</v>
       </c>
       <c r="H13" t="n">
-        <v>127.8651777545335</v>
+        <v>127.8651777545336</v>
       </c>
     </row>
     <row r="14">
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>133.0889332492135</v>
+        <v>133.0889332492138</v>
       </c>
       <c r="H14" t="n">
-        <v>141.5809495121707</v>
+        <v>141.5809495121708</v>
       </c>
     </row>
     <row r="15">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>106.8970925400769</v>
+        <v>106.897092540077</v>
       </c>
       <c r="H15" t="n">
-        <v>165.2341367124729</v>
+        <v>165.2341367124731</v>
       </c>
     </row>
     <row r="16">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>127.1304781326262</v>
+        <v>127.1304781326263</v>
       </c>
       <c r="H16" t="n">
-        <v>128.2878681498575</v>
+        <v>128.2878681498577</v>
       </c>
     </row>
     <row r="17">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>87.17491043440788</v>
+        <v>87.17491043440796</v>
       </c>
       <c r="H17" t="n">
         <v>140.5844123777457</v>
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>107.8994569740719</v>
+        <v>107.899456974072</v>
       </c>
       <c r="H18" t="n">
         <v>140.5590080243904</v>
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>159.0166924001889</v>
+        <v>159.0166924001892</v>
       </c>
       <c r="H19" t="n">
-        <v>149.3898129324066</v>
+        <v>149.3898129324067</v>
       </c>
     </row>
     <row r="20">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>23.34803025543454</v>
+        <v>23.34803025543478</v>
       </c>
       <c r="H20" t="n">
         <v>185.954160405627</v>
@@ -1069,10 +1069,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>89.98051595277629</v>
+        <v>89.98051595277646</v>
       </c>
       <c r="H21" t="n">
-        <v>182.0971065482324</v>
+        <v>182.0971065482325</v>
       </c>
     </row>
     <row r="22">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>67.81788145776929</v>
+        <v>67.81788145776936</v>
       </c>
       <c r="H22" t="n">
-        <v>193.4598564515769</v>
+        <v>193.4598564515771</v>
       </c>
     </row>
     <row r="23">
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>-7.502842284772462</v>
+        <v>-7.502842284772377</v>
       </c>
       <c r="H23" t="n">
         <v>190.0568394126664</v>
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>122.7422513559779</v>
+        <v>122.7422513559775</v>
       </c>
       <c r="H24" t="n">
-        <v>139.0694606924477</v>
+        <v>139.0694606924475</v>
       </c>
     </row>
     <row r="25">
@@ -1189,7 +1189,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>90.33288230768071</v>
+        <v>90.33288230768092</v>
       </c>
       <c r="H25" t="n">
         <v>143.4550531675955</v>
@@ -1219,10 +1219,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>128.3864007953342</v>
+        <v>128.3864007953343</v>
       </c>
       <c r="H26" t="n">
-        <v>121.454366238632</v>
+        <v>121.4543662386321</v>
       </c>
     </row>
     <row r="27">
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>81.63430046767866</v>
+        <v>81.63430046767874</v>
       </c>
       <c r="H29" t="n">
-        <v>159.6725117182618</v>
+        <v>159.672511718262</v>
       </c>
     </row>
     <row r="30">
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>79.20094964410642</v>
+        <v>79.2009496441065</v>
       </c>
       <c r="H30" t="n">
-        <v>167.7417989286962</v>
+        <v>167.7417989286964</v>
       </c>
     </row>
     <row r="31">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>157.2529770760477</v>
+        <v>157.2529770760478</v>
       </c>
       <c r="H31" t="n">
-        <v>115.2181305750906</v>
+        <v>115.2181305750907</v>
       </c>
     </row>
     <row r="32">
@@ -1429,10 +1429,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>122.1095204649365</v>
+        <v>122.1095204649362</v>
       </c>
       <c r="H33" t="n">
-        <v>107.9300232721448</v>
+        <v>107.9300232721445</v>
       </c>
     </row>
     <row r="34">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>123.1267127669243</v>
+        <v>123.126712766924</v>
       </c>
       <c r="H34" t="n">
-        <v>119.7564869291291</v>
+        <v>119.7564869291288</v>
       </c>
     </row>
     <row r="35">
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>133.3853260603044</v>
+        <v>133.3853260603046</v>
       </c>
       <c r="H36" t="n">
-        <v>133.4412052614086</v>
+        <v>133.4412052614087</v>
       </c>
     </row>
     <row r="37">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>123.0220638031477</v>
+        <v>123.0220638031473</v>
       </c>
       <c r="H37" t="n">
-        <v>112.373397424082</v>
+        <v>112.3733974240817</v>
       </c>
     </row>
     <row r="38">
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>137.7456195125262</v>
+        <v>137.7456195125264</v>
       </c>
       <c r="H39" t="n">
-        <v>111.1268830999234</v>
+        <v>111.1268830999235</v>
       </c>
     </row>
     <row r="40">
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>8.702228425130206</v>
+        <v>8.702228425130214</v>
       </c>
       <c r="H40" t="n">
-        <v>181.6844458433731</v>
+        <v>181.6844458433729</v>
       </c>
     </row>
     <row r="41">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>136.9779447943434</v>
+        <v>136.9779447943435</v>
       </c>
       <c r="H42" t="n">
-        <v>110.1407563427393</v>
+        <v>110.1407563427394</v>
       </c>
     </row>
     <row r="43">
@@ -1759,10 +1759,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>-18.90072602748369</v>
+        <v>-18.90072602748385</v>
       </c>
       <c r="H44" t="n">
-        <v>185.8097111880176</v>
+        <v>185.8097111880172</v>
       </c>
     </row>
     <row r="45">
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>137.787193570867</v>
+        <v>137.7871935708672</v>
       </c>
       <c r="H47" t="n">
-        <v>134.7846934452662</v>
+        <v>134.7846934452663</v>
       </c>
     </row>
     <row r="48">
@@ -1909,10 +1909,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>157.6325737495756</v>
+        <v>157.6325737495758</v>
       </c>
       <c r="H49" t="n">
-        <v>116.4557014580502</v>
+        <v>116.4557014580504</v>
       </c>
     </row>
     <row r="50">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>59.63676211111305</v>
+        <v>59.63676211111289</v>
       </c>
       <c r="H50" t="n">
-        <v>197.4125174806475</v>
+        <v>197.4125174806472</v>
       </c>
     </row>
     <row r="51">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>91.05890023736859</v>
+        <v>91.05890023736879</v>
       </c>
       <c r="H51" t="n">
-        <v>196.5352706561631</v>
+        <v>196.5352706561632</v>
       </c>
     </row>
     <row r="52">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>174.3558885794942</v>
+        <v>174.3558885794941</v>
       </c>
       <c r="H52" t="n">
-        <v>81.52001903100225</v>
+        <v>81.52001903100209</v>
       </c>
     </row>
     <row r="53">
@@ -2029,10 +2029,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>154.6869827854617</v>
+        <v>154.6869827854613</v>
       </c>
       <c r="H53" t="n">
-        <v>79.07974774540048</v>
+        <v>79.0797477454002</v>
       </c>
     </row>
     <row r="54">
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>135.0283199673409</v>
+        <v>135.0283199673411</v>
       </c>
       <c r="H54" t="n">
-        <v>76.06943191385331</v>
+        <v>76.06943191385342</v>
       </c>
     </row>
     <row r="55">
@@ -2145,10 +2145,10 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>141.3563239365029</v>
+        <v>141.3563239365028</v>
       </c>
       <c r="H57" t="n">
-        <v>82.43121429877655</v>
+        <v>82.43121429877641</v>
       </c>
     </row>
     <row r="58">
@@ -2175,10 +2175,10 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>174.4741395506572</v>
+        <v>174.474139550657</v>
       </c>
       <c r="H58" t="n">
-        <v>77.06739660179066</v>
+        <v>77.06739660179051</v>
       </c>
     </row>
     <row r="59">
@@ -2205,10 +2205,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>154.817589609035</v>
+        <v>154.8175896090347</v>
       </c>
       <c r="H59" t="n">
-        <v>74.44406448811702</v>
+        <v>74.44406448811671</v>
       </c>
     </row>
     <row r="60">
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>135.067342119444</v>
+        <v>135.0673421194441</v>
       </c>
       <c r="H60" t="n">
-        <v>71.46471070665764</v>
+        <v>71.46471070665778</v>
       </c>
     </row>
     <row r="61">
@@ -2325,10 +2325,10 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>127.0658013687629</v>
+        <v>127.0658013687627</v>
       </c>
       <c r="H63" t="n">
-        <v>96.81876382186633</v>
+        <v>96.81876382186621</v>
       </c>
     </row>
     <row r="64">
@@ -2355,10 +2355,10 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>76.66641633586451</v>
+        <v>76.6664163358643</v>
       </c>
       <c r="H64" t="n">
-        <v>123.2699048141095</v>
+        <v>123.2699048141094</v>
       </c>
     </row>
     <row r="65">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>154.4111628912967</v>
+        <v>154.4111628912963</v>
       </c>
       <c r="H65" t="n">
-        <v>99.41199625531247</v>
+        <v>99.41199625531225</v>
       </c>
     </row>
     <row r="66">
@@ -2415,10 +2415,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>135.2007357456743</v>
+        <v>135.2007357456745</v>
       </c>
       <c r="H66" t="n">
-        <v>97.01563045067091</v>
+        <v>97.01563045067101</v>
       </c>
     </row>
     <row r="67">
@@ -2505,7 +2505,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>144.8043046216216</v>
+        <v>144.8043046216214</v>
       </c>
       <c r="H69" t="n">
         <v>123.6856438271683</v>
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>80.67290588151825</v>
+        <v>80.67290588151809</v>
       </c>
       <c r="H70" t="n">
-        <v>169.9151201492492</v>
+        <v>169.915120149249</v>
       </c>
     </row>
     <row r="71">
@@ -2565,10 +2565,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>126.1790154989529</v>
+        <v>126.1790154989525</v>
       </c>
       <c r="H71" t="n">
-        <v>142.5478723063122</v>
+        <v>142.547872306312</v>
       </c>
     </row>
     <row r="72">
@@ -2595,10 +2595,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>109.2537100033547</v>
+        <v>109.2537100033548</v>
       </c>
       <c r="H72" t="n">
-        <v>152.5052273466778</v>
+        <v>152.5052273466779</v>
       </c>
     </row>
     <row r="73">
@@ -2655,10 +2655,10 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>78.8227264393382</v>
+        <v>78.82272643933861</v>
       </c>
       <c r="H74" t="n">
-        <v>116.0445681620134</v>
+        <v>116.0445681620135</v>
       </c>
     </row>
     <row r="75">
@@ -2685,10 +2685,10 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>44.3172624562208</v>
+        <v>44.31726245622101</v>
       </c>
       <c r="H75" t="n">
-        <v>173.1694035658661</v>
+        <v>173.1694035658662</v>
       </c>
     </row>
     <row r="76">
@@ -2715,10 +2715,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>84.82379026900352</v>
+        <v>84.82379026900345</v>
       </c>
       <c r="H76" t="n">
-        <v>190.5926849873595</v>
+        <v>190.5926849873591</v>
       </c>
     </row>
     <row r="77">
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>99.4401446194703</v>
+        <v>99.44014461947069</v>
       </c>
       <c r="H77" t="n">
-        <v>154.2778447018657</v>
+        <v>154.2778447018659</v>
       </c>
     </row>
     <row r="78">
@@ -2775,10 +2775,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>154.7661968153594</v>
+        <v>154.7661968153591</v>
       </c>
       <c r="H78" t="n">
-        <v>74.19070969169893</v>
+        <v>74.19070969169861</v>
       </c>
     </row>
     <row r="79">
@@ -2805,10 +2805,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>129.4900098075086</v>
+        <v>129.4900098075084</v>
       </c>
       <c r="H79" t="n">
-        <v>70.63342458146548</v>
+        <v>70.63342458146532</v>
       </c>
     </row>
     <row r="80">
@@ -2835,10 +2835,10 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>144.2543189808855</v>
+        <v>144.2543189808858</v>
       </c>
       <c r="H80" t="n">
-        <v>70.81906484969583</v>
+        <v>70.81906484969612</v>
       </c>
     </row>
     <row r="81">
@@ -2865,10 +2865,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>139.7773789234581</v>
+        <v>139.7773789234579</v>
       </c>
       <c r="H81" t="n">
-        <v>70.60926343505693</v>
+        <v>70.60926343505677</v>
       </c>
     </row>
     <row r="82">
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>114.0460398085881</v>
+        <v>114.0460398085883</v>
       </c>
       <c r="H82" t="n">
-        <v>89.11457490481391</v>
+        <v>89.11457490481402</v>
       </c>
     </row>
     <row r="83">
@@ -2925,10 +2925,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>125.0827323164106</v>
+        <v>125.0827323164108</v>
       </c>
       <c r="H83" t="n">
-        <v>68.02200660287006</v>
+        <v>68.02200660287022</v>
       </c>
     </row>
     <row r="84">
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>123.2325783405111</v>
+        <v>123.2325783405108</v>
       </c>
       <c r="H85" t="n">
-        <v>85.96737112716005</v>
+        <v>85.96737112715969</v>
       </c>
     </row>
     <row r="86">
@@ -3015,10 +3015,10 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>144.927621831931</v>
+        <v>144.9276218319314</v>
       </c>
       <c r="H86" t="n">
-        <v>73.86328269760189</v>
+        <v>73.8632826976022</v>
       </c>
     </row>
     <row r="87">
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>154.4759799517335</v>
+        <v>154.4759799517331</v>
       </c>
       <c r="H88" t="n">
-        <v>84.26111179437619</v>
+        <v>84.26111179437595</v>
       </c>
     </row>
     <row r="89">
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>124.2097400247109</v>
+        <v>124.2097400247111</v>
       </c>
       <c r="H90" t="n">
-        <v>75.69638482330457</v>
+        <v>75.69638482330471</v>
       </c>
     </row>
     <row r="91">
@@ -3165,10 +3165,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>164.4761108287034</v>
+        <v>164.4761108287031</v>
       </c>
       <c r="H91" t="n">
-        <v>79.08068768005047</v>
+        <v>79.08068768005012</v>
       </c>
     </row>
     <row r="92">
@@ -3195,10 +3195,10 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>129.0504066525652</v>
+        <v>129.0504066525653</v>
       </c>
       <c r="H92" t="n">
-        <v>98.73293477337258</v>
+        <v>98.73293477337273</v>
       </c>
     </row>
     <row r="93">
@@ -3225,10 +3225,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>139.5377975467294</v>
+        <v>139.5377975467293</v>
       </c>
       <c r="H93" t="n">
-        <v>82.41541630044986</v>
+        <v>82.41541630044972</v>
       </c>
     </row>
     <row r="94">
@@ -3255,10 +3255,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>118.5416338666607</v>
+        <v>118.5416338666605</v>
       </c>
       <c r="H94" t="n">
-        <v>121.8020338584756</v>
+        <v>121.8020338584755</v>
       </c>
     </row>
     <row r="95">
@@ -3285,10 +3285,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>99.20520038809231</v>
+        <v>99.20520038809202</v>
       </c>
       <c r="H95" t="n">
-        <v>145.6133136259426</v>
+        <v>145.6133136259423</v>
       </c>
     </row>
     <row r="96">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>38.74856009820849</v>
+        <v>38.74856009820869</v>
       </c>
       <c r="H96" t="n">
-        <v>164.6872325286261</v>
+        <v>164.6872325286264</v>
       </c>
     </row>
     <row r="97">
@@ -3345,10 +3345,10 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>78.21682252604842</v>
+        <v>78.2168225260486</v>
       </c>
       <c r="H97" t="n">
-        <v>113.3562212286061</v>
+        <v>113.3562212286062</v>
       </c>
     </row>
     <row r="98">
@@ -3405,10 +3405,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>83.39838214943478</v>
+        <v>83.39838214943447</v>
       </c>
       <c r="H99" t="n">
-        <v>138.7208665790404</v>
+        <v>138.7208665790402</v>
       </c>
     </row>
     <row r="100">
@@ -3435,10 +3435,10 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>128.6075249731033</v>
+        <v>128.6075249731037</v>
       </c>
       <c r="H100" t="n">
-        <v>119.6233857916594</v>
+        <v>119.6233857916595</v>
       </c>
     </row>
     <row r="101">
